--- a/NSI_Project_plan.xlsx
+++ b/NSI_Project_plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Taif\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manna\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDAF0494-85D4-4BF7-8C4B-C72FC5F66133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24B4BF1B-CDF4-49A5-AFDA-233A0BDFBC4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B1488F4C-321F-47B8-A514-B4E63673806C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{B1488F4C-321F-47B8-A514-B4E63673806C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
   <si>
     <t>Exercise</t>
   </si>
@@ -125,44 +114,65 @@
     <t>Links for Libraries</t>
   </si>
   <si>
+    <t>Graph Data - Domain Knowledge - Data Set</t>
+  </si>
+  <si>
+    <t>https://paperswithcode.com/method/mpnn</t>
+  </si>
+  <si>
+    <t>Domain Knowledge - Data Set</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/1904.11694.pdf</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/2102.11529.pdf</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/1906.03523.pdf</t>
+  </si>
+  <si>
+    <t>FOL Domain Knowledge - Data Set</t>
+  </si>
+  <si>
+    <t>Legends</t>
+  </si>
+  <si>
     <t>Bold</t>
   </si>
   <si>
     <t>Initial Survey by Taif</t>
   </si>
   <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>Initial Survey by A. Rahman</t>
+  </si>
+  <si>
     <t>Purple</t>
   </si>
   <si>
-    <t>Initial Survey by A. Rahman</t>
-  </si>
-  <si>
     <t>Initial Survey by Both</t>
   </si>
   <si>
-    <t>Orange</t>
-  </si>
-  <si>
-    <t>Legends</t>
-  </si>
-  <si>
     <t>Green</t>
   </si>
   <si>
+    <t>Outside Scope of NSI</t>
+  </si>
+  <si>
     <t>Red</t>
   </si>
   <si>
     <t>No libraries given</t>
-  </si>
-  <si>
-    <t>Outside Scope of NSI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,6 +216,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -239,16 +257,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -256,7 +276,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -273,9 +294,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -313,7 +334,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -419,7 +440,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -561,7 +582,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -569,20 +590,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD82C906-6AFD-4B1B-A86B-3BFE70CD739F}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="73" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.33203125" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="79.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="115.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="34.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -608,7 +635,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>5</v>
       </c>
@@ -620,7 +647,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>6</v>
       </c>
@@ -634,7 +661,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>8</v>
       </c>
@@ -651,7 +678,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10</v>
       </c>
@@ -668,7 +695,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -681,8 +708,14 @@
       <c r="D6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -695,22 +728,34 @@
       <c r="D7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="1">
         <v>7</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>11</v>
       </c>
@@ -723,8 +768,14 @@
       <c r="D9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>21</v>
       </c>
@@ -732,54 +783,59 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D12" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D13" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D14" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D15" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D16" s="10" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D12" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D14" s="9" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D17" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>38</v>
+      <c r="E14" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D15" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D16" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D17" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E8" r:id="rId1" xr:uid="{8D3C056F-051C-43DF-A942-01FA239DD4D3}"/>
+    <hyperlink ref="E9" r:id="rId2" xr:uid="{EB4DABC1-9DA0-4433-ACFA-EB01C49EBD3D}"/>
+    <hyperlink ref="D8" r:id="rId3" xr:uid="{8AE25A3F-EEAF-4362-A5BC-DDA78D11B9C4}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>